--- a/data/trans_dic/IP19C01-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP19C01-Habitat-trans_dic.xlsx
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>72,69%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>78,62%</t>
+          <t>63,82%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>72,1%</t>
+          <t>85,72%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>79,26%</t>
+          <t>88,23%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>67,68%</t>
+          <t>48,35%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>64,66%</t>
+          <t>73,93%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>69,7%</t>
+          <t>65,21%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>86,92%</t>
+          <t>71,34%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>70,2%</t>
+          <t>71,01%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>71,73%</t>
+          <t>68,85%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>70,9%</t>
+          <t>75,62%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>82,44%</t>
+          <t>78,2%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>65,71; 78,85</t>
+          <t>90,01; 100</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>72,04; 84,4</t>
+          <t>35,39; 86,85</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>64,65; 78,6</t>
+          <t>64,55; 96,43</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>72,44; 84,42</t>
+          <t>51,58; 100,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>60,47; 74,37</t>
+          <t>28,13; 69,74</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>56,58; 71,34</t>
+          <t>47,8; 93,16</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>62,14; 76,47</t>
+          <t>37,7; 85,96</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>80,47; 92,05</t>
+          <t>44,4; 91,15</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>65,2; 74,88</t>
+          <t>55,58; 84,0</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>66,82; 76,1</t>
+          <t>48,77; 83,76</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>64,87; 75,07</t>
+          <t>59,0; 87,95</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>77,94; 86,77</t>
+          <t>54,43; 93,94</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>69,2%</t>
+          <t>72,69%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>83,79%</t>
+          <t>78,62%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>79,65%</t>
+          <t>72,1%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>87,45%</t>
+          <t>79,26%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>63,44%</t>
+          <t>67,68%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>76,14%</t>
+          <t>64,66%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>78,56%</t>
+          <t>69,7%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>87,2%</t>
+          <t>86,92%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>66,23%</t>
+          <t>70,2%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>80,03%</t>
+          <t>71,73%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>79,1%</t>
+          <t>70,9%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>87,33%</t>
+          <t>82,44%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>60,67; 77,31</t>
+          <t>65,71; 78,85</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>78,01; 89,66</t>
+          <t>72,04; 84,4</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>72,24; 85,5</t>
+          <t>64,65; 78,6</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>80,44; 92,36</t>
+          <t>72,44; 84,42</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>54,39; 72,22</t>
+          <t>60,47; 74,37</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>67,56; 83,63</t>
+          <t>56,58; 71,34</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>70,99; 84,63</t>
+          <t>62,14; 76,47</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>80,05; 91,76</t>
+          <t>80,47; 92,05</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>60,18; 71,39</t>
+          <t>65,2; 74,88</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>74,71; 84,65</t>
+          <t>66,82; 76,1</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>73,96; 83,51</t>
+          <t>64,87; 75,07</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>83,19; 91,1</t>
+          <t>77,94; 86,77</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>73,04%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>63,82%</t>
+          <t>72,1%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>85,72%</t>
+          <t>72,03%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>88,23%</t>
+          <t>79,74%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>48,35%</t>
+          <t>71,5%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>73,93%</t>
+          <t>75,08%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>65,21%</t>
+          <t>78,07%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>71,34%</t>
+          <t>71,38%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>71,01%</t>
+          <t>72,32%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>68,85%</t>
+          <t>73,54%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>75,62%</t>
+          <t>75,0%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>78,2%</t>
+          <t>75,69%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>90,01; 100</t>
+          <t>64,8; 80,51</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>35,39; 86,85</t>
+          <t>62,99; 79,53</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>64,55; 96,43</t>
+          <t>63,25; 79,08</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>51,58; 100,0</t>
+          <t>70,39; 86,88</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>28,13; 69,74</t>
+          <t>62,71; 78,8</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>47,8; 93,16</t>
+          <t>65,69; 82,24</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>37,7; 85,96</t>
+          <t>70,11; 85,26</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>44,4; 91,15</t>
+          <t>62,72; 79,17</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>55,58; 84,0</t>
+          <t>66,69; 78,41</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>48,77; 83,76</t>
+          <t>67,59; 79,0</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>59,0; 87,95</t>
+          <t>69,42; 80,12</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>54,43; 93,94</t>
+          <t>69,99; 81,11</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>73,04%</t>
+          <t>69,2%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>72,1%</t>
+          <t>83,79%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>72,03%</t>
+          <t>79,65%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>79,74%</t>
+          <t>87,45%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>71,5%</t>
+          <t>63,44%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>75,08%</t>
+          <t>76,14%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>78,07%</t>
+          <t>78,56%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>71,38%</t>
+          <t>87,2%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>72,32%</t>
+          <t>66,23%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>73,54%</t>
+          <t>80,03%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>75,0%</t>
+          <t>79,1%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>75,69%</t>
+          <t>87,33%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>64,8; 80,51</t>
+          <t>60,67; 77,31</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>62,99; 79,53</t>
+          <t>78,01; 89,66</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>63,25; 79,08</t>
+          <t>72,24; 85,5</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>70,39; 86,88</t>
+          <t>80,44; 92,36</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>62,71; 78,8</t>
+          <t>54,39; 72,22</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>65,69; 82,24</t>
+          <t>67,56; 83,63</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>70,11; 85,26</t>
+          <t>70,99; 84,63</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>62,72; 79,17</t>
+          <t>80,05; 91,76</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>66,69; 78,41</t>
+          <t>60,18; 71,39</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>67,59; 79,0</t>
+          <t>74,71; 84,65</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>69,42; 80,12</t>
+          <t>73,96; 83,51</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>69,99; 81,11</t>
+          <t>83,19; 91,1</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP19C01-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP19C01-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -729,12 +729,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>35,39; 86,85</t>
+          <t>36,96; 87,18</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>64,55; 96,43</t>
+          <t>63,62; 96,43</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>28,13; 69,74</t>
+          <t>26,96; 68,09</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>47,8; 93,16</t>
+          <t>46,29; 93,17</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>37,7; 85,96</t>
+          <t>38,76; 85,62</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>55,58; 84,0</t>
+          <t>55,87; 85,01</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>48,77; 83,76</t>
+          <t>49,1; 83,85</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>59,0; 87,95</t>
+          <t>58,52; 87,91</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>54,38; 73,4</t>
+          <t>54,51; 73,59</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>56,32; 76,79</t>
+          <t>56,57; 75,87</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>68,02; 86,25</t>
+          <t>68,81; 87,06</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>76,58; 93,25</t>
+          <t>77,07; 93,03</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>56,52; 76,02</t>
+          <t>57,29; 76,67</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>66,29; 84,0</t>
+          <t>65,87; 83,73</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>57,34; 77,12</t>
+          <t>56,71; 76,95</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>74,13; 90,34</t>
+          <t>72,94; 90,23</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>58,68; 72,45</t>
+          <t>58,46; 72,23</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>64,09; 77,55</t>
+          <t>64,62; 77,82</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>66,45; 79,76</t>
+          <t>66,32; 79,87</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>78,19; 89,98</t>
+          <t>78,11; 90,12</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>65,71; 78,85</t>
+          <t>65,66; 79,17</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>72,04; 84,4</t>
+          <t>72,22; 84,55</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>64,65; 78,6</t>
+          <t>64,28; 78,69</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>72,44; 84,42</t>
+          <t>72,62; 84,95</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>60,47; 74,37</t>
+          <t>60,68; 74,72</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>56,58; 71,34</t>
+          <t>57,33; 71,26</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>62,14; 76,47</t>
+          <t>63,01; 76,6</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>80,47; 92,05</t>
+          <t>80,51; 91,92</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>65,2; 74,88</t>
+          <t>65,31; 74,71</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>66,82; 76,1</t>
+          <t>66,3; 75,87</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>64,87; 75,07</t>
+          <t>65,82; 75,47</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>77,94; 86,77</t>
+          <t>77,5; 86,3</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>64,8; 80,51</t>
+          <t>64,91; 80,51</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>62,99; 79,53</t>
+          <t>63,7; 79,53</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>63,25; 79,08</t>
+          <t>64,41; 79,94</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>70,39; 86,88</t>
+          <t>70,2; 86,38</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>62,71; 78,8</t>
+          <t>63,43; 79,45</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>65,69; 82,24</t>
+          <t>66,09; 82,62</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>70,11; 85,26</t>
+          <t>69,26; 84,7</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>62,72; 79,17</t>
+          <t>62,61; 79,22</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>66,69; 78,41</t>
+          <t>65,95; 77,51</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>67,59; 79,0</t>
+          <t>67,08; 78,35</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>69,42; 80,12</t>
+          <t>69,03; 80,27</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>69,99; 81,11</t>
+          <t>69,66; 80,91</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>60,67; 77,31</t>
+          <t>60,4; 76,85</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>78,01; 89,66</t>
+          <t>76,32; 89,42</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>72,24; 85,5</t>
+          <t>72,41; 85,22</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>80,44; 92,36</t>
+          <t>79,76; 92,12</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>54,39; 72,22</t>
+          <t>54,37; 71,37</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>67,56; 83,63</t>
+          <t>67,98; 83,4</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>70,99; 84,63</t>
+          <t>71,23; 84,65</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>80,05; 91,76</t>
+          <t>80,45; 91,99</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>60,18; 71,39</t>
+          <t>59,77; 72,14</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>74,71; 84,65</t>
+          <t>74,81; 84,58</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>73,96; 83,51</t>
+          <t>74,02; 83,78</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>83,19; 91,1</t>
+          <t>82,78; 90,84</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>67,59; 75,19</t>
+          <t>67,66; 75,56</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>71,97; 79,4</t>
+          <t>72,16; 79,26</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>72,19; 79,68</t>
+          <t>72,15; 79,21</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>78,73; 85,59</t>
+          <t>78,67; 85,56</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>61,4; 69,76</t>
+          <t>62,23; 70,43</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>67,86; 75,75</t>
+          <t>67,84; 75,69</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>69,6; 77,51</t>
+          <t>69,93; 77,39</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>78,63; 85,3</t>
+          <t>78,01; 85,18</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>65,89; 71,63</t>
+          <t>66,22; 71,67</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>71,46; 76,69</t>
+          <t>71,29; 76,63</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>72,09; 77,36</t>
+          <t>71,73; 77,28</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>79,96; 84,66</t>
+          <t>79,71; 84,72</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP19C01-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP19C01-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -729,64 +729,64 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>36,96; 87,18</t>
+          <t>37,94; 86,39</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>63,62; 96,43</t>
+          <t>58,94; 96,37</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>51,58; 100,0</t>
+          <t>47,09; 100,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>26,96; 68,09</t>
+          <t>29,7; 71,5</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>46,29; 93,17</t>
+          <t>47,25; 92,75</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>38,76; 85,62</t>
+          <t>38,99; 86,83</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>44,4; 91,15</t>
+          <t>41,34; 90,7</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>55,87; 85,01</t>
+          <t>54,83; 83,85</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>49,1; 83,85</t>
+          <t>49,56; 84,88</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>58,52; 87,91</t>
+          <t>59,07; 87,81</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>54,43; 93,94</t>
+          <t>55,36; 94,33</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>54,51; 73,59</t>
+          <t>55,04; 72,88</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>56,57; 75,87</t>
+          <t>56,31; 76,35</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>68,81; 87,06</t>
+          <t>68,96; 86,06</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>77,07; 93,03</t>
+          <t>77,92; 93,71</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>57,29; 76,67</t>
+          <t>56,44; 76,48</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>65,87; 83,73</t>
+          <t>65,36; 83,18</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>56,71; 76,95</t>
+          <t>56,18; 76,43</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>72,94; 90,23</t>
+          <t>74,28; 90,58</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>58,46; 72,23</t>
+          <t>57,96; 72,08</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>64,62; 77,82</t>
+          <t>63,28; 77,11</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>66,32; 79,87</t>
+          <t>66,37; 80,17</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>78,11; 90,12</t>
+          <t>78,83; 90,51</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>65,66; 79,17</t>
+          <t>65,74; 79,84</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>72,22; 84,55</t>
+          <t>72,29; 84,21</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>64,28; 78,69</t>
+          <t>64,56; 79,36</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>72,62; 84,95</t>
+          <t>72,82; 84,86</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>60,68; 74,72</t>
+          <t>60,41; 73,68</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>57,33; 71,26</t>
+          <t>56,96; 71,76</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>63,01; 76,6</t>
+          <t>62,48; 76,01</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>80,51; 91,92</t>
+          <t>80,04; 91,57</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>65,31; 74,71</t>
+          <t>65,43; 75,14</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>66,3; 75,87</t>
+          <t>66,56; 76,22</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>65,82; 75,47</t>
+          <t>66,01; 76,2</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>77,5; 86,3</t>
+          <t>77,9; 86,48</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>64,91; 80,51</t>
+          <t>65,26; 80,37</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>63,7; 79,53</t>
+          <t>63,42; 79,35</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>64,41; 79,94</t>
+          <t>62,36; 79,25</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>70,2; 86,38</t>
+          <t>70,61; 86,17</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>63,43; 79,45</t>
+          <t>62,58; 79,74</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>66,09; 82,62</t>
+          <t>66,77; 82,68</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>69,26; 84,7</t>
+          <t>69,68; 85,16</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>62,61; 79,22</t>
+          <t>62,12; 79,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>65,95; 77,51</t>
+          <t>66,37; 77,47</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>67,08; 78,35</t>
+          <t>66,9; 79,1</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>69,03; 80,27</t>
+          <t>69,28; 80,17</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>69,66; 80,91</t>
+          <t>69,3; 81,22</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>60,4; 76,85</t>
+          <t>60,98; 76,37</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>76,32; 89,42</t>
+          <t>76,99; 89,34</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>72,41; 85,22</t>
+          <t>73,35; 86,16</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>79,76; 92,12</t>
+          <t>80,43; 92,05</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>54,37; 71,37</t>
+          <t>54,53; 70,98</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>67,98; 83,4</t>
+          <t>68,02; 82,86</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>71,23; 84,65</t>
+          <t>70,26; 84,22</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>80,45; 91,99</t>
+          <t>80,97; 91,85</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>59,77; 72,14</t>
+          <t>60,0; 72,28</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>74,81; 84,58</t>
+          <t>74,5; 84,54</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>74,02; 83,78</t>
+          <t>73,87; 83,49</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>82,78; 90,84</t>
+          <t>82,9; 90,95</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>67,66; 75,56</t>
+          <t>67,04; 74,76</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>72,16; 79,26</t>
+          <t>72,05; 79,43</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>72,15; 79,21</t>
+          <t>72,38; 79,31</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>78,67; 85,56</t>
+          <t>79,16; 85,71</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>62,23; 70,43</t>
+          <t>61,85; 69,9</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>67,84; 75,69</t>
+          <t>68,03; 75,7</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>69,93; 77,39</t>
+          <t>69,14; 77,05</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>78,01; 85,18</t>
+          <t>78,33; 85,27</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>66,22; 71,67</t>
+          <t>66,06; 71,53</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>71,29; 76,63</t>
+          <t>71,36; 76,64</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>71,73; 77,28</t>
+          <t>72,05; 77,41</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>79,71; 84,72</t>
+          <t>79,87; 84,57</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP19C01-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP19C01-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>62,58%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>63,82%</t>
+          <t>75,39%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>85,72%</t>
+          <t>66,9%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>88,23%</t>
+          <t>81,11%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>48,35%</t>
+          <t>70,44%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>73,93%</t>
+          <t>66,13%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>65,21%</t>
+          <t>80,06%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>71,34%</t>
+          <t>86,36%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>71,01%</t>
+          <t>66,67%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>68,85%</t>
+          <t>70,74%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>75,62%</t>
+          <t>73,77%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>78,2%</t>
+          <t>84,0%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>90,01; 100</t>
+          <t>53,06; 71,51</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>37,94; 86,39</t>
+          <t>66,35; 83,67</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>58,94; 96,37</t>
+          <t>56,21; 75,56</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>47,09; 100,0</t>
+          <t>71,2; 88,29</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>29,7; 71,5</t>
+          <t>61,96; 78,62</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>47,25; 92,75</t>
+          <t>57,38; 75,26</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>38,99; 86,83</t>
+          <t>70,92; 86,57</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>41,34; 90,7</t>
+          <t>76,57; 92,72</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>54,83; 83,85</t>
+          <t>59,57; 72,21</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>49,56; 84,88</t>
+          <t>64,19; 76,42</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>59,07; 87,81</t>
+          <t>67,45; 79,77</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>55,36; 94,33</t>
+          <t>77,2; 89,09</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>64,51%</t>
+          <t>67,68%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>66,61%</t>
+          <t>64,66%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>78,64%</t>
+          <t>69,7%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>86,63%</t>
+          <t>86,67%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>66,87%</t>
+          <t>72,69%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>75,69%</t>
+          <t>78,62%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>67,36%</t>
+          <t>72,1%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>83,41%</t>
+          <t>78,8%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>65,6%</t>
+          <t>70,2%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>71,13%</t>
+          <t>71,73%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>73,29%</t>
+          <t>70,9%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>85,13%</t>
+          <t>81,98%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>55,04; 72,88</t>
+          <t>60,47; 74,37</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>56,31; 76,35</t>
+          <t>56,58; 71,34</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>68,96; 86,06</t>
+          <t>62,14; 76,47</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>77,92; 93,71</t>
+          <t>80,15; 91,86</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>56,44; 76,48</t>
+          <t>65,71; 78,85</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>65,36; 83,18</t>
+          <t>72,04; 84,4</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>56,18; 76,43</t>
+          <t>64,65; 78,6</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>74,28; 90,58</t>
+          <t>72,23; 84,22</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>57,96; 72,08</t>
+          <t>65,2; 74,88</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>63,28; 77,11</t>
+          <t>66,82; 76,1</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>66,37; 80,17</t>
+          <t>64,87; 75,07</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>78,83; 90,51</t>
+          <t>77,35; 86,48</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>72,69%</t>
+          <t>71,5%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>78,62%</t>
+          <t>75,08%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
+          <t>78,07%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>71,45%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>73,04%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>72,1%</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>79,26%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>67,68%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>64,66%</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>69,7%</t>
+          <t>72,03%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>86,92%</t>
+          <t>80,26%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>70,2%</t>
+          <t>72,32%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>71,73%</t>
+          <t>73,54%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>70,9%</t>
+          <t>75,0%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>82,44%</t>
+          <t>76,11%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>65,74; 79,84</t>
+          <t>62,71; 78,8</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>72,29; 84,21</t>
+          <t>65,69; 82,24</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>64,56; 79,36</t>
+          <t>70,11; 85,26</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>72,82; 84,86</t>
+          <t>61,95; 79,74</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>60,41; 73,68</t>
+          <t>64,8; 80,51</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>56,96; 71,76</t>
+          <t>62,99; 79,53</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>62,48; 76,01</t>
+          <t>63,25; 79,08</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>80,04; 91,57</t>
+          <t>70,84; 87,22</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>65,43; 75,14</t>
+          <t>66,69; 78,41</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>66,56; 76,22</t>
+          <t>67,59; 79,0</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>66,01; 76,2</t>
+          <t>69,42; 80,12</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>77,9; 86,48</t>
+          <t>70,14; 81,5</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>73,04%</t>
+          <t>63,44%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>72,1%</t>
+          <t>76,14%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>72,03%</t>
+          <t>78,56%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>79,74%</t>
+          <t>87,26%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>71,5%</t>
+          <t>69,2%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>75,08%</t>
+          <t>83,79%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>78,07%</t>
+          <t>79,65%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>71,38%</t>
+          <t>87,17%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>72,32%</t>
+          <t>66,23%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>73,54%</t>
+          <t>80,03%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>75,0%</t>
+          <t>79,1%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>75,69%</t>
+          <t>87,21%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>65,26; 80,37</t>
+          <t>54,39; 72,22</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>63,42; 79,35</t>
+          <t>67,56; 83,63</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>62,36; 79,25</t>
+          <t>70,99; 84,63</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>70,61; 86,17</t>
+          <t>80,35; 91,86</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>62,58; 79,74</t>
+          <t>60,67; 77,31</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>66,77; 82,68</t>
+          <t>78,01; 89,66</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>69,68; 85,16</t>
+          <t>72,24; 85,5</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>62,12; 79,0</t>
+          <t>79,96; 92,5</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>66,37; 77,47</t>
+          <t>60,18; 71,39</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>66,9; 79,1</t>
+          <t>74,71; 84,65</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>69,28; 80,17</t>
+          <t>73,96; 83,51</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>69,3; 81,22</t>
+          <t>82,89; 91,18</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>69,2%</t>
+          <t>66,17%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>83,79%</t>
+          <t>72,13%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>79,65%</t>
+          <t>73,58%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>87,45%</t>
+          <t>81,67%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>63,44%</t>
+          <t>71,38%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>76,14%</t>
+          <t>75,98%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>78,56%</t>
+          <t>75,92%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>87,2%</t>
+          <t>82,42%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>66,23%</t>
+          <t>68,82%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>80,03%</t>
+          <t>74,08%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>79,1%</t>
+          <t>74,76%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>87,33%</t>
+          <t>82,09%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>60,98; 76,37</t>
+          <t>61,4; 69,76</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>76,99; 89,34</t>
+          <t>67,86; 75,75</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>73,35; 86,16</t>
+          <t>69,6; 77,51</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>80,43; 92,05</t>
+          <t>77,96; 84,91</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>54,53; 70,98</t>
+          <t>67,59; 75,19</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>68,02; 82,86</t>
+          <t>71,97; 79,4</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>70,26; 84,22</t>
+          <t>72,19; 79,68</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>80,97; 91,85</t>
+          <t>78,51; 85,69</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>60,0; 72,28</t>
+          <t>65,89; 71,63</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>74,5; 84,54</t>
+          <t>71,46; 76,69</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>73,87; 83,49</t>
+          <t>72,09; 77,36</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>82,9; 90,95</t>
+          <t>79,73; 84,54</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>71,38%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>75,98%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>75,92%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>82,54%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>66,17%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>72,13%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>73,58%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>81,98%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>68,82%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>74,08%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>74,76%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>82,28%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>67,04; 74,76</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>72,05; 79,43</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>72,38; 79,31</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>79,16; 85,71</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>61,85; 69,9</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>68,03; 75,7</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>69,14; 77,05</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>78,33; 85,27</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>66,06; 71,53</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>71,36; 76,64</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>72,05; 77,41</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>79,87; 84,57</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
